--- a/MCNP/Target/Solid/Isotope-S/Y89/Zr89.xlsx
+++ b/MCNP/Target/Solid/Isotope-S/Y89/Zr89.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCNP_INP\Git-Server\my_-work\MCNP\Target\Solid\Isotope-S\Y89\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyWork\MCNP\Target\Solid\Isotope-S\Y89\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5610870-C0B2-473A-B8E8-895595549054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC13244-9F51-4AEA-AD8B-29220C74B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54175,7 +54175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54191,9 +54191,9 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -54225,10 +54225,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>38087</v>
       </c>
@@ -54267,7 +54267,7 @@
         <v>Sr87</v>
       </c>
     </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>38088</v>
       </c>
@@ -54306,7 +54306,7 @@
         <v>Sr88</v>
       </c>
     </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>38089</v>
       </c>
@@ -54345,7 +54345,7 @@
         <v>Sr89</v>
       </c>
     </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>38090</v>
       </c>
@@ -54384,7 +54384,7 @@
         <v>Sr90</v>
       </c>
     </row>
-    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>38091</v>
       </c>
@@ -54423,7 +54423,7 @@
         <v>Sr91</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>38092</v>
       </c>
@@ -54462,7 +54462,7 @@
         <v>Sr92</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>38093</v>
       </c>
@@ -54501,7 +54501,7 @@
         <v>Sr93</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>38094</v>
       </c>
@@ -54540,7 +54540,7 @@
         <v>Sr94</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>38095</v>
       </c>
@@ -54579,7 +54579,7 @@
         <v>Sr95</v>
       </c>
     </row>
-    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>38096</v>
       </c>
@@ -54618,7 +54618,7 @@
         <v>Sr96</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>38097</v>
       </c>
@@ -54657,7 +54657,7 @@
         <v>Sr97</v>
       </c>
     </row>
-    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>38098</v>
       </c>
@@ -54696,7 +54696,7 @@
         <v>Sr98</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>38099</v>
       </c>
@@ -54735,7 +54735,7 @@
         <v>Sr99</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>38100</v>
       </c>
@@ -54774,7 +54774,7 @@
         <v>Sr100</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>39080</v>
       </c>
@@ -54813,7 +54813,7 @@
         <v>Y80</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>39081</v>
       </c>
@@ -54852,7 +54852,7 @@
         <v>Y81</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>39082</v>
       </c>
@@ -54891,7 +54891,7 @@
         <v>Y82</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>39083</v>
       </c>
@@ -54930,7 +54930,7 @@
         <v>Y83</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>39084</v>
       </c>
@@ -54969,7 +54969,7 @@
         <v>Y84</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>39085</v>
       </c>
@@ -55008,7 +55008,7 @@
         <v>Y85</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>39086</v>
       </c>
@@ -55047,7 +55047,7 @@
         <v>Y86</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>39087</v>
       </c>
@@ -55086,7 +55086,7 @@
         <v>Y87</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>39088</v>
       </c>
@@ -55132,7 +55132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>39089</v>
       </c>
@@ -55171,7 +55171,7 @@
         <v>Y89</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>39090</v>
       </c>
@@ -55217,7 +55217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>39091</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v>Y91</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>39092</v>
       </c>
@@ -55295,7 +55295,7 @@
         <v>Y92</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>39093</v>
       </c>
@@ -55334,7 +55334,7 @@
         <v>Y93</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>39094</v>
       </c>
@@ -55373,7 +55373,7 @@
         <v>Y94</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>39095</v>
       </c>
@@ -55412,7 +55412,7 @@
         <v>Y95</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>39096</v>
       </c>
@@ -55451,7 +55451,7 @@
         <v>Y96</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>39097</v>
       </c>
@@ -55490,7 +55490,7 @@
         <v>Y97</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>39098</v>
       </c>
@@ -55529,7 +55529,7 @@
         <v>Y98</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>39099</v>
       </c>
@@ -55568,7 +55568,7 @@
         <v>Y99</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>39100</v>
       </c>
@@ -55607,7 +55607,7 @@
         <v>Y100</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>39101</v>
       </c>
@@ -55646,7 +55646,7 @@
         <v>Y101</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>39102</v>
       </c>
@@ -55685,7 +55685,7 @@
         <v>Y102</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>40081</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>Zr81</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>40082</v>
       </c>
@@ -55763,7 +55763,7 @@
         <v>Zr82</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>40083</v>
       </c>
@@ -55802,7 +55802,7 @@
         <v>Zr83</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>40084</v>
       </c>
@@ -55841,7 +55841,7 @@
         <v>Zr84</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>40085</v>
       </c>
@@ -55880,7 +55880,7 @@
         <v>Zr85</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>40086</v>
       </c>
@@ -55919,7 +55919,7 @@
         <v>Zr86</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>40087</v>
       </c>
@@ -55958,7 +55958,7 @@
         <v>Zr87</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>40088</v>
       </c>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>40089</v>
       </c>
@@ -56050,7 +56050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>40090</v>
       </c>
@@ -56089,7 +56089,7 @@
         <v>Zr90</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>28060</v>
       </c>
@@ -56128,7 +56128,7 @@
         <v>Ni60</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>28061</v>
       </c>
@@ -56167,7 +56167,7 @@
         <v>Ni61</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>28062</v>
       </c>
@@ -56206,7 +56206,7 @@
         <v>Ni62</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>28063</v>
       </c>
@@ -56252,7 +56252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>28064</v>
       </c>
@@ -56291,7 +56291,7 @@
         <v>Ni64</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>28065</v>
       </c>
@@ -56337,7 +56337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>28066</v>
       </c>
@@ -56376,7 +56376,7 @@
         <v>Ni66</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>28067</v>
       </c>
@@ -56415,7 +56415,7 @@
         <v>Ni67</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>28068</v>
       </c>
@@ -56454,7 +56454,7 @@
         <v>Ni68</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>29057</v>
       </c>
@@ -56493,7 +56493,7 @@
         <v>Cu57</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>29058</v>
       </c>
@@ -56532,7 +56532,7 @@
         <v>Cu58</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>29059</v>
       </c>
@@ -56571,7 +56571,7 @@
         <v>Cu59</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>29060</v>
       </c>
@@ -56610,7 +56610,7 @@
         <v>Cu60</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>29061</v>
       </c>
@@ -56649,7 +56649,7 @@
         <v>Cu61</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>29062</v>
       </c>
@@ -56695,7 +56695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>29063</v>
       </c>
@@ -56734,7 +56734,7 @@
         <v>Cu63</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>29064</v>
       </c>
@@ -56780,7 +56780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>29065</v>
       </c>
@@ -56819,7 +56819,7 @@
         <v>Cu65</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>29066</v>
       </c>
@@ -56865,7 +56865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>29067</v>
       </c>
@@ -56904,7 +56904,7 @@
         <v>Cu67</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>29068</v>
       </c>
@@ -56943,7 +56943,7 @@
         <v>Cu68</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>29069</v>
       </c>
@@ -56982,7 +56982,7 @@
         <v>Cu69</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>29070</v>
       </c>
@@ -57021,7 +57021,7 @@
         <v>Cu70</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>29071</v>
       </c>
@@ -57060,7 +57060,7 @@
         <v>Cu71</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>29072</v>
       </c>
@@ -57099,7 +57099,7 @@
         <v>Cu72</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>29073</v>
       </c>
@@ -57138,7 +57138,7 @@
         <v>Cu73</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>30057</v>
       </c>
@@ -57177,7 +57177,7 @@
         <v>Zn57</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>30058</v>
       </c>
@@ -57216,7 +57216,7 @@
         <v>Zn58</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>30059</v>
       </c>
@@ -57255,7 +57255,7 @@
         <v>Zn59</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>30060</v>
       </c>
@@ -57294,7 +57294,7 @@
         <v>Zn60</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>30061</v>
       </c>
@@ -57333,7 +57333,7 @@
         <v>Zn61</v>
       </c>
     </row>
-    <row r="83" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>30062</v>
       </c>
@@ -57372,7 +57372,7 @@
         <v>Zn62</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>30063</v>
       </c>
@@ -57418,7 +57418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>30064</v>
       </c>
@@ -57457,7 +57457,7 @@
         <v>Zn64</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>30065</v>
       </c>
@@ -57503,7 +57503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>30066</v>
       </c>
